--- a/ig/core/StructureDefinition-medcom-core-practitioner.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="302">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T14:13:17+02:00</t>
+    <t>2025-09-24T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -381,7 +381,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -394,6 +394,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Practitioner.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Practitioner.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Practitioner.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Practitioner.contained</t>
@@ -419,34 +522,13 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Practitioner.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Practitioner.modifierExtension</t>
@@ -626,9 +708,6 @@
     <t>Needed to address the person correctly.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The gender of a person used for administrative purposes.</t>
   </si>
   <si>
@@ -712,9 +791,6 @@
 Declaring the slices, and their cardinalities, to allow a KL-code and a SNOMED CT code</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>CER?</t>
   </si>
   <si>
@@ -727,29 +803,7 @@
     <t>Practitioner.qualification.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Practitioner.qualification.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Practitioner.qualification.modifierExtension</t>
@@ -870,22 +924,6 @@
   </si>
   <si>
     <t>[DA] Autorisationskode, som specificeret af autorisationsregisteret</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>Identifier</t>
   </si>
   <si>
     <t>Practitioner.qualification:officialHealthAuthorization.code</t>
@@ -1245,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AN39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1254,17 +1292,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.84375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.1015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.3203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.7890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1273,26 +1311,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.12109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.39453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="77.7265625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.5" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="69.15625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="60.5" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="137.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="51.21484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.65625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="47.515625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.90625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1548,7 +1586,7 @@
         <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>76</v>
@@ -2002,7 +2040,7 @@
         <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>76</v>
@@ -2106,14 +2144,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -2125,17 +2163,15 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>76</v>
@@ -2184,13 +2220,13 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
@@ -2202,7 +2238,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2213,14 +2249,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2239,16 +2275,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2286,19 +2322,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2310,13 +2346,13 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2327,46 +2363,42 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>142</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2390,13 +2422,13 @@
         <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>76</v>
@@ -2414,25 +2446,25 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2443,10 +2475,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2454,33 +2486,33 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2528,50 +2560,50 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2580,29 +2612,25 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q12" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2646,31 +2674,31 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -2682,7 +2710,7 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2692,29 +2720,27 @@
         <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
       </c>
@@ -2762,7 +2788,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -2774,16 +2800,16 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>76</v>
@@ -2791,14 +2817,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2811,25 +2837,25 @@
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2878,7 +2904,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -2890,16 +2916,16 @@
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>76</v>
@@ -2907,10 +2933,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2933,19 +2959,17 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -2994,7 +3018,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3009,24 +3033,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>76</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3049,22 +3073,26 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="R16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3084,13 +3112,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3108,7 +3136,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3123,24 +3151,24 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3151,10 +3179,10 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>76</v>
@@ -3163,17 +3191,19 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O17" t="s" s="2">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3222,13 +3252,13 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
@@ -3237,13 +3267,13 @@
         <v>99</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>76</v>
@@ -3251,10 +3281,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3274,20 +3304,22 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
@@ -3336,7 +3368,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3351,13 +3383,13 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3365,10 +3397,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3388,19 +3420,23 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3436,19 +3472,19 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3463,13 +3499,13 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3477,10 +3513,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3500,19 +3536,21 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3536,13 +3574,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3560,7 +3598,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3572,16 +3610,16 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -3589,21 +3627,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3612,21 +3650,21 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>133</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>134</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3674,28 +3712,28 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -3703,14 +3741,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3723,25 +3761,23 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3790,7 +3826,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3802,16 +3838,16 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -3819,10 +3855,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3845,18 +3881,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>145</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3892,19 +3926,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3919,13 +3953,13 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
@@ -3933,10 +3967,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3944,7 +3978,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>87</v>
@@ -3959,13 +3993,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3992,13 +4026,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4016,10 +4050,10 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>87</v>
@@ -4028,16 +4062,16 @@
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>76</v>
@@ -4045,21 +4079,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -4071,18 +4105,18 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4130,28 +4164,28 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>76</v>
@@ -4159,42 +4193,46 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>259</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4242,25 +4280,25 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4271,14 +4309,12 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4287,7 +4323,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4299,16 +4335,18 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4356,7 +4394,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4371,13 +4409,13 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -4385,10 +4423,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4396,7 +4434,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -4411,13 +4449,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4444,13 +4482,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4468,10 +4506,10 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -4480,16 +4518,16 @@
         <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -4497,21 +4535,21 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -4523,18 +4561,18 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>134</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4582,28 +4620,28 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>229</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -4611,46 +4649,42 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4698,25 +4732,25 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>76</v>
@@ -4727,12 +4761,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4741,7 +4777,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4753,18 +4789,16 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4812,7 +4846,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4821,19 +4855,19 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -4841,10 +4875,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4852,7 +4886,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
@@ -4867,13 +4901,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>125</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4900,11 +4934,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="Y32" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z32" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -4922,10 +4958,10 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>87</v>
@@ -4934,16 +4970,16 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -4951,21 +4987,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -4977,18 +5013,18 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>132</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5036,28 +5072,28 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>76</v>
@@ -5065,42 +5101,46 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>259</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5148,25 +5188,25 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5177,10 +5217,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5203,19 +5243,17 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5240,13 +5278,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5264,7 +5302,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5279,20 +5317,472 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="B36" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="M36" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y36" s="2"/>
+      <c r="Z36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN35">
+  <autoFilter ref="A1:AN39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5302,7 +5792,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI34">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/core/StructureDefinition-medcom-core-practitioner.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/core/StructureDefinition-medcom-core-practitioner.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$48</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T07:28:01+00:00</t>
+    <t>2026-01-13T14:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -639,6 +639,192 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Practitioner.name.family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surname
+</t>
+  </si>
+  <si>
+    <t>Family name (often called 'Surname')</t>
+  </si>
+  <si>
+    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
+  </si>
+  <si>
+    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
+  </si>
+  <si>
+    <t>HumanName.family</t>
+  </si>
+  <si>
+    <t>XPN.1/FN.1</t>
+  </si>
+  <si>
+    <t>./part[partType = FAM]</t>
+  </si>
+  <si>
+    <t>./FamilyName</t>
+  </si>
+  <si>
+    <t>Practitioner.name.given</t>
+  </si>
+  <si>
+    <t>first name
+middle name</t>
+  </si>
+  <si>
+    <t>Given names (not always 'first'). Includes middle names</t>
+  </si>
+  <si>
+    <t>Given name.</t>
+  </si>
+  <si>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+  </si>
+  <si>
+    <t>HumanName.given</t>
+  </si>
+  <si>
+    <t>XPN.2 + XPN.3</t>
+  </si>
+  <si>
+    <t>./part[partType = GIV]</t>
+  </si>
+  <si>
+    <t>./GivenNames</t>
+  </si>
+  <si>
+    <t>Practitioner.name.prefix</t>
+  </si>
+  <si>
+    <t>Parts that come before the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.prefix</t>
+  </si>
+  <si>
+    <t>XPN.5</t>
+  </si>
+  <si>
+    <t>./part[partType = PFX]</t>
+  </si>
+  <si>
+    <t>./TitleCode</t>
+  </si>
+  <si>
+    <t>Practitioner.name.suffix</t>
+  </si>
+  <si>
+    <t>Parts that come after the name</t>
+  </si>
+  <si>
+    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
+  </si>
+  <si>
+    <t>HumanName.suffix</t>
+  </si>
+  <si>
+    <t>XPN/4</t>
+  </si>
+  <si>
+    <t>./part[partType = SFX]</t>
+  </si>
+  <si>
+    <t>Practitioner.name.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when name was/is in use</t>
+  </si>
+  <si>
+    <t>Indicates the period of time when this name was valid for the named person.</t>
+  </si>
+  <si>
+    <t>Allows names to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>HumanName.period</t>
+  </si>
+  <si>
+    <t>XPN.13 + XPN.14</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
     <t>Practitioner.telecom</t>
   </si>
   <si>
@@ -787,7 +973,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the identifier.systemm value which allows for official qualifications to
+    <t>Slice based on the identifier.system value which allows for official qualifications to
 Declaring the slices, and their cardinalities, to allow a KL-code and a SNOMED CT code</t>
   </si>
   <si>
@@ -866,10 +1052,6 @@
     <t>Practitioner.qualification.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Period during which the qualification is valid</t>
   </si>
   <si>
@@ -888,7 +1070,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1283,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN39"/>
+  <dimension ref="A1:AN48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1327,7 +1509,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.65625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.16015625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="47.515625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="44.90625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
@@ -1580,7 +1762,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>87</v>
@@ -2034,7 +2216,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>87</v>
@@ -3295,7 +3477,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3304,23 +3486,19 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>125</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3368,28 +3546,28 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>76</v>
@@ -3397,14 +3575,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3420,23 +3598,21 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3472,19 +3648,19 @@
         <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3496,16 +3672,16 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>76</v>
@@ -3513,10 +3689,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3533,7 +3709,7 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>88</v>
@@ -3542,14 +3718,16 @@
         <v>107</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3577,10 +3755,10 @@
         <v>143</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3598,7 +3776,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3613,13 +3791,13 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>76</v>
@@ -3627,10 +3805,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3653,17 +3831,19 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3712,7 +3892,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3727,13 +3907,13 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>76</v>
@@ -3741,44 +3921,44 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>233</v>
+        <v>124</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3826,13 +4006,13 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
@@ -3841,13 +4021,13 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -3855,14 +4035,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -3872,24 +4052,26 @@
         <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3926,19 +4108,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3953,13 +4135,13 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>76</v>
@@ -3967,10 +4149,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3981,7 +4163,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -3990,16 +4172,16 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4050,28 +4232,28 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>76</v>
@@ -4079,14 +4261,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4102,20 +4284,18 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4164,7 +4344,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4176,13 +4356,13 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4193,45 +4373,43 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4286,22 +4464,22 @@
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>255</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>76</v>
@@ -4309,10 +4487,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4332,20 +4510,22 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>171</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4394,7 +4574,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4409,13 +4589,13 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>76</v>
@@ -4423,10 +4603,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4434,10 +4614,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4446,19 +4626,23 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -4482,13 +4666,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>265</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4506,13 +4690,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4521,13 +4705,13 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -4535,10 +4719,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4558,20 +4742,20 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>107</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4596,13 +4780,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4620,7 +4804,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4635,13 +4819,13 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -4649,10 +4833,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4672,19 +4856,21 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4732,7 +4918,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4747,13 +4933,13 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>76</v>
@@ -4761,14 +4947,12 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4777,7 +4961,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4789,16 +4973,18 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4846,7 +5032,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -4861,13 +5047,13 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>76</v>
@@ -4875,10 +5061,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4889,7 +5075,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -4901,13 +5087,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>124</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>125</v>
+        <v>302</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>126</v>
+        <v>303</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4946,40 +5132,40 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>127</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>128</v>
+        <v>307</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -4987,21 +5173,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5013,17 +5199,15 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5072,19 +5256,19 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
@@ -5101,14 +5285,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5121,26 +5305,24 @@
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5188,7 +5370,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>254</v>
+        <v>138</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5206,7 +5388,7 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5217,14 +5399,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5237,23 +5419,25 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>286</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5302,7 +5486,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5314,13 +5498,13 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5331,10 +5515,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5342,10 +5526,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5357,16 +5541,18 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5390,11 +5576,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>291</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5412,13 +5600,13 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
@@ -5430,10 +5618,10 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>246</v>
+        <v>320</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -5441,10 +5629,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5452,7 +5640,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
@@ -5467,18 +5655,16 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>272</v>
-      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5502,13 +5688,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5526,10 +5712,10 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>87</v>
@@ -5544,10 +5730,10 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -5555,10 +5741,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5581,16 +5767,18 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5638,7 +5826,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5656,10 +5844,10 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>76</v>
@@ -5667,10 +5855,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5681,7 +5869,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5693,20 +5881,16 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5730,13 +5914,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5754,13 +5938,13 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
@@ -5769,20 +5953,1042 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="C40" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="L40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Y45" s="2"/>
+      <c r="Z45" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN39">
+  <autoFilter ref="A1:AN48">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5792,7 +6998,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI47">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
